--- a/server/data/The 22 1.xlsx
+++ b/server/data/The 22 1.xlsx
@@ -1088,16 +1088,25 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Joe Johnsons's Logging</v>
+        <v>Spur Forestry Ltd (aka. Coe Contracting)</v>
       </c>
       <c r="B25" t="str">
-        <v>Fuel treatment</v>
+        <v>Thinning</v>
       </c>
       <c r="C25" t="str">
-        <v>Williams Lake</v>
+        <v>Quesnel</v>
       </c>
       <c r="D25" t="str">
         <v>Cariboo</v>
+      </c>
+      <c r="F25" t="str">
+        <v>(250)- 992-2982</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Harvester, Forwarder</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Madill harvester, John Deere forwarder</v>
       </c>
     </row>
   </sheetData>
